--- a/TestCalendar2024.xlsx
+++ b/TestCalendar2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh\Documents\AggieHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8C679D-1443-4B28-99D7-E2CD41D38562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4AB632-B9FF-4A7B-9D66-A64359C09DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>mhanguyen@ucdavis.edu</t>
   </si>
   <si>
-    <t>aaa@gmail.com</t>
-  </si>
-  <si>
     <t>bbb@gmail.com</t>
   </si>
   <si>
@@ -130,12 +127,15 @@
   <si>
     <t>Shift Time</t>
   </si>
+  <si>
+    <t>minhkhangkg01@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -230,6 +230,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -364,10 +371,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -416,8 +424,10 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -636,8 +646,8 @@
   </sheetPr>
   <dimension ref="A2:I989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
@@ -665,7 +675,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>1</v>
@@ -4223,7 +4233,9 @@
   </sheetPr>
   <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4275,7 +4287,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="5">
@@ -4309,8 +4321,8 @@
         <v>6</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
+      <c r="C3" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="5">
         <v>1234567891</v>
@@ -4344,7 +4356,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5">
         <v>1234567892</v>
@@ -4378,7 +4390,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5">
         <v>1234567893</v>
@@ -15721,6 +15733,10 @@
       <c r="D985" s="16"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CD398F3E-B2C5-441F-8058-D77680AB5F0C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3DDC9F4E-9571-4D74-81EB-FAF709B2C949}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>